--- a/Numerical Methods.xlsx
+++ b/Numerical Methods.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahnawaj\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="False Position" sheetId="1" r:id="rId1"/>
@@ -17,16 +12,11 @@
     <sheet name="Newton Raphson" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -34,16 +24,16 @@
     <t>b</t>
   </si>
   <si>
-    <t>f(a)</t>
+    <t>fa</t>
   </si>
   <si>
-    <t>f(b)</t>
+    <t>fb</t>
   </si>
   <si>
     <t>x0</t>
   </si>
   <si>
-    <t>f(x0)</t>
+    <t>fx0</t>
   </si>
 </sst>
 </file>
@@ -86,7 +76,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -109,39 +99,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,160 +210,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -401,26 +411,23 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>POWER(A2,3)-2*POWER(A2,2)-4</f>
+        <f t="shared" ref="C2:D4" si="0">POWER(A2,3)-2*POWER(A2,2)-4</f>
         <v>-4</v>
       </c>
       <c r="D2">
-        <f>POWER(B2,3)-2*POWER(B2,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E2">
-        <f>((A2*D2)-(B2*C2))/(D2-C2)</f>
+        <f>(A2*D2-B2*C2)/(D2-C2)</f>
         <v>2.4444444444444446</v>
       </c>
       <c r="F2">
         <f>POWER(E2,3)-2*POWER(E2,2)-4</f>
         <v>-1.3443072702331946</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF((C2*F2)&lt;0,A2,E2)</f>
         <v>2.4444444444444446</v>
@@ -430,26 +437,23 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>POWER(A3,3)-2*POWER(A3,2)-4</f>
+        <f t="shared" si="0"/>
         <v>-1.3443072702331946</v>
       </c>
       <c r="D3">
-        <f>POWER(B3,3)-2*POWER(B3,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E3">
-        <f>((A3*D3)-(B3*C3))/(D3-C3)</f>
+        <f>(A3*D3-B3*C3)/(D3-C3)</f>
         <v>2.5621621621621617</v>
       </c>
       <c r="F3">
         <f>POWER(E3,3)-2*POWER(E3,2)-4</f>
         <v>-0.30958813890589276</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>IF((C3*F3)&lt;0,A3,E3)</f>
         <v>2.5621621621621617</v>
@@ -459,400 +463,358 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>POWER(A4,3)-2*POWER(A4,2)-4</f>
+        <f t="shared" si="0"/>
         <v>-0.30958813890589276</v>
       </c>
       <c r="D4">
-        <f>POWER(B4,3)-2*POWER(B4,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E4">
-        <f>((A4*D4)-(B4*C4))/(D4-C4)</f>
+        <f>(A4*D4-B4*C4)/(D4-C4)</f>
         <v>2.5876913365185605</v>
       </c>
       <c r="F4">
         <f>POWER(E4,3)-2*POWER(E4,2)-4</f>
         <v>-6.4732741457630638E-2</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A17" si="0">IF((C4*F4)&lt;0,A4,E4)</f>
+        <f t="shared" ref="A5:A17" si="1">IF((C4*F4)&lt;0,A4,E4)</f>
         <v>2.5876913365185605</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B17" si="1">IF((D4*F4)&lt;0,B4,E4)</f>
+        <f t="shared" ref="B5:B17" si="2">IF((D4*F4)&lt;0,B4,E4)</f>
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C17" si="2">POWER(A5,3)-2*POWER(A5,2)-4</f>
+        <f t="shared" ref="C5:C17" si="3">POWER(A5,3)-2*POWER(A5,2)-4</f>
         <v>-6.4732741457630638E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D17" si="3">POWER(B5,3)-2*POWER(B5,2)-4</f>
+        <f t="shared" ref="D5:D17" si="4">POWER(B5,3)-2*POWER(B5,2)-4</f>
         <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E17" si="4">((A5*D5)-(B5*C5))/(D5-C5)</f>
+        <f t="shared" ref="E5:E17" si="5">(A5*D5-B5*C5)/(D5-C5)</f>
         <v>2.5929610854818996</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F17" si="5">POWER(E5,3)-2*POWER(E5,2)-4</f>
+        <f t="shared" ref="F5:F17" si="6">POWER(E5,3)-2*POWER(E5,2)-4</f>
         <v>-1.3257455549087638E-2</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5929610854818996</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3257455549087638E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5940374914642015</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.7035975632294651E-3</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5940374914642015</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7035975632294651E-3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5942568846837748</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5086518511870963E-4</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5942568846837748</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.5086518511870963E-4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943015817106336</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.122203060113236E-4</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943015817106336</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.122203060113236E-4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.594310687026403</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.2860296178706108E-5</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.594310687026403</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2860296178706108E-5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943125418534931</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.65681574546295E-6</v>
       </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943125418534931</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.65681574546295E-6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943129196954899</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.4862726562894295E-7</v>
       </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943129196954899</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.4862726562894295E-7</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943129966646405</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.9324222222394383E-7</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943129966646405</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9324222222394383E-7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130123438118</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9364829618193653E-8</v>
       </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130123438118</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9364829618193653E-8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130155377716</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.0188993223373473E-9</v>
       </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130155377716</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.0188993223373473E-9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.594313016188404</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.6335111041598793E-9</v>
       </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.594313016188404</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6335111041598793E-9</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130163209429</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.3275782129749132E-10</v>
       </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130163209429</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3275782129749132E-10</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130163479418</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.7785776991513558E-11</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -862,28 +824,1018 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>(A2*A2*A2-2*A2*A2-4)</f>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f>(B2*B2*B2-2*B2*B2-4)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>((A2+B2)/2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <f>(E2*E2*E2-2*E2*E2-4)</f>
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>IF((C2*F2)&lt;0,E2,A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>IF((B2*F2)&lt;0,E2,B2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <f>(A3*A3*A3-2*A3*A3-4)</f>
+        <v>-4</v>
+      </c>
+      <c r="D3">
+        <f>(B3*B3*B3-2*B3*B3-4)</f>
+        <v>-0.875</v>
+      </c>
+      <c r="E3">
+        <f>((A3+B3)/2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="F3">
+        <f>(E3*E3*E3-2*E3*E3-4)</f>
+        <v>-2.734375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A20" si="0">IF((C3*F3)&lt;0,E3,A3)</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B20" si="1">IF((B3*F3)&lt;0,E3,B3)</f>
+        <v>2.25</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C20" si="2">(A4*A4*A4-2*A4*A4-4)</f>
+        <v>-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D20" si="3">(B4*B4*B4-2*B4*B4-4)</f>
+        <v>-2.734375</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E20" si="4">((A4+B4)/2)</f>
+        <v>2.125</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F20" si="5">(E4*E4*E4-2*E4*E4-4)</f>
+        <v>-3.435546875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.125</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>-3.435546875</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>2.0625</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>-3.734130859375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.0625</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>-3.734130859375</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>2.03125</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>-3.871063232421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.03125</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>-3.871063232421875</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>2.015625</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>-3.9365196228027344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.015625</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>-3.9365196228027344</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>2.0078125</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>-3.9685053825378418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.0078125</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>-3.9685053825378418</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>2.00390625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>-3.9843139052391052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.00390625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>-3.9843139052391052</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>2.001953125</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>-3.9921722337603569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2.001953125</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>-3.9921722337603569</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>2.0009765625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>-3.9960899343714118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2.0009765625</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>-3.9960899343714118</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>2.00048828125</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-3.9980459212092683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.00048828125</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>-3.9980459212092683</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>2.000244140625</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>-3.999023199066869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.000244140625</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>-3.999023199066869</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>2.0001220703125</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>-3.9995116591435362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.0001220703125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>-3.9995116591435362</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>2.00006103515625</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>-3.9997558444736114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2.00006103515625</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>-3.9997558444736114</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>2.000030517578125</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>-3.9998779259621813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2.000030517578125</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-3.9998779259621813</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>2.0000152587890625</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>-3.9999389639124239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2.0000152587890625</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>-3.9999389639124239</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>2.0000076293945313</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>-3.9999694821890444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>2.0000076293945313</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-3.9999694821890444</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>2.0000038146972656</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>-3.9999847411527298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2.0000038146972656</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-3.9999847411527298</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>2.0000019073486328</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>-3.9999923705909168</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>(2*A2+SIN(A2)-EXP(A2))</f>
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <f>(2*B2+SIN(B2)-EXP(B2))</f>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E2">
+        <f>IF((C2*D2)&lt;0,(A2+B2)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f>2*E2+SIN(E2)-EXP(E2)</f>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>(2*A3+SIN(A3)-EXP(A3))</f>
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <f>(2*B3+SIN(B3)-EXP(B3))</f>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E3">
+        <f>IF((C3*D3)&lt;0,(A3+B3)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f>2*E3+SIN(E3)-EXP(E3)</f>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C20" si="0">(2*A4+SIN(A4)-EXP(A4))</f>
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D20" si="1">(2*B4+SIN(B4)-EXP(B4))</f>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E4">
+        <f>IF((C4*D4)&lt;0,(A4+B4)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F20" si="2">2*E4+SIN(E4)-EXP(E4)</f>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E5">
+        <f>IF((C5*D5)&lt;0,(A5+B5)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E6">
+        <f>IF((C6*D6)&lt;0,(A6+B6)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E7">
+        <f>IF((C7*D7)&lt;0,(A7+B7)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E8">
+        <f>IF((C8*D8)&lt;0,(A8+B8)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E9">
+        <f>IF((C9*D9)&lt;0,(A9+B9)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E10">
+        <f>IF((C10*D10)&lt;0,(A10+B10)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E11">
+        <f>IF((C11*D11)&lt;0,(A11+B11)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E12">
+        <f>IF((C12*D12)&lt;0,(A12+B12)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E13">
+        <f>IF((C13*D13)&lt;0,(A13+B13)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E14">
+        <f>IF((C14*D14)&lt;0,(A14+B14)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E15">
+        <f>IF((C15*D15)&lt;0,(A15+B15)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E16">
+        <f>IF((C16*D16)&lt;0,(A16+B16)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E17">
+        <f>IF((C17*D17)&lt;0,(A17+B17)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E18">
+        <f>IF((C18*D18)&lt;0,(A18+B18)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E19">
+        <f>IF((C19*D19)&lt;0,(A19+B19)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.12318915634885164</v>
+      </c>
+      <c r="E20">
+        <f>IF((C20*D20)&lt;0,(A20+B20)/2,no)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-0.16929573209592519</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>